--- a/src/main/resources/static/excel/团队导入模板.xlsx
+++ b/src/main/resources/static/excel/团队导入模板.xlsx
@@ -16,18 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
-  <si>
-    <t>服务区域常住人口数</t>
-  </si>
-  <si>
-    <t>团队名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务责任小区（自然村）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>北区团队</t>
   </si>
@@ -36,101 +25,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>镇区团队</t>
+  </si>
+  <si>
+    <t>南市街、北市街、城隍埭、后港街、蚬江街、西湾街、贞丰弄、蚬园弄、中市街、通秀里、梅堰浜、陈家弄、沈家弄、南湖街、鱼池岸、工商弄、全福路、全功路165-313号、梅花园、梅花弄、聚宝园、三本堂、桂花园、新舟小区、包括寺前拆迁户及店面；东庄绿岛至卫生院西及沿街店面保昆新村及店面、东起全福路、西至云海路，南起全功路，北至三牛宾馆，包括桃花园及沿街店面、南起后港街，北至全功路，东起全福路，西至寺前街。东垞、外浜、里浜、银子浜、通秀里、梅堰浜、老轮船码头、南湖新村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀南（南岳田、杏花村、秀王浜）   云南（店前、东汤湾、荒田里、西汤湾）、寒贞、茆浜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西区团队</t>
+  </si>
+  <si>
+    <t>蚬江团队</t>
+  </si>
+  <si>
+    <t>园区团队</t>
+  </si>
+  <si>
+    <t>冷家湾、王家浜、白家浜、东官村  ，云谷周庄、后庙浜、前庙浜、全旺浜、质洞、云亭港</t>
+  </si>
+  <si>
+    <t>龙凤村（仙鹤楼、许家港、东区、西区）；蚬北村（南沙港、邵浜、陈家浜）；龙隐水庄、茂月居、蚬江社区</t>
+  </si>
+  <si>
+    <t>双庙（东埭浪、塘家浜、小圩、西浜、夏西埭、港东埭浪）；西田村（西朝娄、南埭浪、菜梗里、小圩浪、荒田里、鱼池浪、南村、宋家浜）、湾里、荷花池、里浜、横江港、酱园里、七家浜、庄、三枝浜、后村</t>
+  </si>
+  <si>
+    <t>金家庄团队</t>
+  </si>
+  <si>
+    <t>兴复度城</t>
+  </si>
+  <si>
+    <t>永新团队</t>
+  </si>
+  <si>
+    <t>红星团队</t>
+  </si>
+  <si>
+    <t>安上团队</t>
+  </si>
+  <si>
+    <t>淀辉团队</t>
+  </si>
+  <si>
+    <t>香馨佳园团队</t>
+  </si>
+  <si>
+    <t>淀湖团队</t>
+  </si>
+  <si>
+    <t>金家庄村,淀山湖花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度城村、兴复村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永新村</t>
+  </si>
+  <si>
+    <t>晟泰红星村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安上,双护,王土泾,周家泾,东大,双娄,长大华,东娄,园厅,南寿巷</t>
+  </si>
+  <si>
+    <t>淀辉+利民</t>
+  </si>
+  <si>
+    <t>香馨佳园小区,民和村,石杨河村,淀山湖居委（街道）</t>
+  </si>
+  <si>
+    <t>淀山湖花园A,淀山湖花园B,淀山湖花园C,淀山湖花园D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务区域常住人口数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务责任小区（自然村）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>团队名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>东区团队</t>
-  </si>
-  <si>
-    <t>镇区团队</t>
-  </si>
-  <si>
-    <t>社区名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南市街、北市街、城隍埭、后港街、蚬江街、西湾街、贞丰弄、蚬园弄、中市街、通秀里、梅堰浜、陈家弄、沈家弄、南湖街、鱼池岸、工商弄、全福路、全功路165-313号、梅花园、梅花弄、聚宝园、三本堂、桂花园、新舟小区、包括寺前拆迁户及店面；东庄绿岛至卫生院西及沿街店面保昆新村及店面、东起全福路、西至云海路，南起全功路，北至三牛宾馆，包括桃花园及沿街店面、南起后港街，北至全功路，东起全福路，西至寺前街。东垞、外浜、里浜、银子浜、通秀里、梅堰浜、老轮船码头、南湖新村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秀南（南岳田、杏花村、秀王浜）   云南（店前、东汤湾、荒田里、西汤湾）、寒贞、茆浜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆山市周庄社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>昆山市周庄社区卫生服务中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西区团队</t>
-  </si>
-  <si>
-    <t>蚬江团队</t>
-  </si>
-  <si>
-    <t>园区团队</t>
-  </si>
-  <si>
-    <t>冷家湾、王家浜、白家浜、东官村  ，云谷周庄、后庙浜、前庙浜、全旺浜、质洞、云亭港</t>
-  </si>
-  <si>
-    <t>龙凤村（仙鹤楼、许家港、东区、西区）；蚬北村（南沙港、邵浜、陈家浜）；龙隐水庄、茂月居、蚬江社区</t>
-  </si>
-  <si>
-    <t>双庙（东埭浪、塘家浜、小圩、西浜、夏西埭、港东埭浪）；西田村（西朝娄、南埭浪、菜梗里、小圩浪、荒田里、鱼池浪、南村、宋家浜）、湾里、荷花池、里浜、横江港、酱园里、七家浜、庄、三枝浜、后村</t>
-  </si>
-  <si>
-    <t>昆山市淀山湖社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>金家庄团队</t>
-  </si>
-  <si>
-    <t>兴复度城</t>
-  </si>
-  <si>
-    <t>永新团队</t>
-  </si>
-  <si>
-    <t>红星团队</t>
-  </si>
-  <si>
-    <t>安上团队</t>
-  </si>
-  <si>
-    <t>淀辉团队</t>
-  </si>
-  <si>
-    <t>香馨佳园团队</t>
-  </si>
-  <si>
-    <t>淀湖团队</t>
-  </si>
-  <si>
-    <t>金家庄村,淀山湖花园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度城村、兴复村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永新村</t>
-  </si>
-  <si>
-    <t>晟泰红星村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安上,双护,王土泾,周家泾,东大,双娄,长大华,东娄,园厅,南寿巷</t>
-  </si>
-  <si>
-    <t>淀辉+利民</t>
-  </si>
-  <si>
-    <t>香馨佳园小区,民和村,石杨河村,淀山湖居委（街道）</t>
-  </si>
-  <si>
-    <t>淀山湖花园A,淀山湖花园B,淀山湖花园C,淀山湖花园D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,14 +223,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF2F2F2F"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -227,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,10 +296,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -617,235 +667,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="121.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="121.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1">
+    <row r="1" spans="1:3" ht="25.5" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="54">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8">
-        <v>3567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="54">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8">
-        <v>6559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8">
-        <v>6207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="5" t="s">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="8">
-        <v>4256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.25">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="8">
-        <v>7854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="8">
-        <v>7854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.25">
-      <c r="A15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="7">
         <v>4225</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A7 A16:A1048576">
-      <formula1>"昆山市柏庐社区卫生服务中心,昆山市张浦社区卫生服务中心,昆山市千灯社区卫生服务中心,昆山市锦溪社区卫生服务中心,昆山市巴城社区卫生服务中心,昆山市淀山湖社区卫生服务中心,昆山市周庄社区卫生服务中心,昆山市亭林社区卫生服务中心,昆山市青阳社区卫生服务中心,昆山市震川社区卫生服务中心,昆山市江浦社区卫生服务中心,昆山市蓬朗社区卫生服务中心,昆山市周市社区卫生服务中心,昆山市陆家社区卫生服务中心,昆山市花桥社区卫生服务中心"</formula1>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="只能输入数字" error="只能输入数字" prompt="只能输入数字" sqref="C1:C1048576">
+      <formula1>0</formula1>
+      <formula2>10000000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
